--- a/data/input/employee_absence_data_43.xlsx
+++ b/data/input/employee_absence_data_43.xlsx
@@ -464,98 +464,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9969</v>
+        <v>96248</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr. Samuel Alves</t>
+          <t>Dante Cavalcanti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45097</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>3428.78</v>
+        <v>8244.77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8076</v>
+        <v>46515</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lorena Azevedo</t>
+          <t>Ísis Cavalcanti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45079</v>
+        <v>45078</v>
       </c>
       <c r="G3" t="n">
-        <v>9563.33</v>
+        <v>8979.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12084</v>
+        <v>20445</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gustavo Henrique Sampaio</t>
+          <t>Isaac Almeida</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45094</v>
+        <v>45086</v>
       </c>
       <c r="G4" t="n">
-        <v>10331.66</v>
+        <v>4302.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>79913</v>
+        <v>70543</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Otto Sá</t>
+          <t>Anthony Gabriel Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,89 +565,89 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45090</v>
+        <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>2888.76</v>
+        <v>6848.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>39232</v>
+        <v>71613</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luiz Henrique da Rosa</t>
+          <t>Sophie Pires</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45105</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>7791.75</v>
+        <v>4173.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>42059</v>
+        <v>77455</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luiz Gustavo Leão</t>
+          <t>Bernardo Novais</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45085</v>
+        <v>45081</v>
       </c>
       <c r="G7" t="n">
-        <v>5277.67</v>
+        <v>2464.11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11868</v>
+        <v>74841</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Julia Sousa</t>
+          <t>Sr. Marcos Vinicius Abreu</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -659,97 +659,97 @@
         <v>8</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45082</v>
+        <v>45092</v>
       </c>
       <c r="G8" t="n">
-        <v>8939.209999999999</v>
+        <v>9442.610000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>65895</v>
+        <v>57124</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sra. Alícia Castro</t>
+          <t>Thomas Macedo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45099</v>
+        <v>45090</v>
       </c>
       <c r="G9" t="n">
-        <v>6151.17</v>
+        <v>7373.51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>58859</v>
+        <v>72623</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Otto Pereira</t>
+          <t>Daniel Barbosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45099</v>
+        <v>45088</v>
       </c>
       <c r="G10" t="n">
-        <v>7880.18</v>
+        <v>3889.42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>71046</v>
+        <v>44669</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ravi Lucca Borges</t>
+          <t>Pedro Miguel Cirino</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45105</v>
+        <v>45095</v>
       </c>
       <c r="G11" t="n">
-        <v>5144.89</v>
+        <v>8108.86</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_43.xlsx
+++ b/data/input/employee_absence_data_43.xlsx
@@ -464,45 +464,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96248</v>
+        <v>29648</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dante Cavalcanti</t>
+          <t>Ravi Lucca Abreu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45087</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>8244.77</v>
+        <v>8681.41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>46515</v>
+        <v>72664</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ísis Cavalcanti</t>
+          <t>Dra. Lorena da Mota</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,143 +511,143 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45078</v>
+        <v>45105</v>
       </c>
       <c r="G3" t="n">
-        <v>8979.33</v>
+        <v>8302.549999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20445</v>
+        <v>35738</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isaac Almeida</t>
+          <t>Sra. Heloísa Abreu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>8</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>4302.08</v>
+        <v>7276.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>70543</v>
+        <v>58130</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anthony Gabriel Costa</t>
+          <t>Davi Moraes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45106</v>
+        <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>6848.17</v>
+        <v>3907.81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>71613</v>
+        <v>74404</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sophie Pires</t>
+          <t>Pedro Henrique Câmara</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45086</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>4173.68</v>
+        <v>3389.46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>77455</v>
+        <v>90697</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bernardo Novais</t>
+          <t>Sophia da Mata</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45081</v>
+        <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>2464.11</v>
+        <v>9849.07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>74841</v>
+        <v>79550</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sr. Marcos Vinicius Abreu</t>
+          <t>Sr. Diego Monteiro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -656,100 +656,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45092</v>
+        <v>45103</v>
       </c>
       <c r="G8" t="n">
-        <v>9442.610000000001</v>
+        <v>5971.48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>57124</v>
+        <v>46353</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Thomas Macedo</t>
+          <t>Diego Albuquerque</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45090</v>
+        <v>45092</v>
       </c>
       <c r="G9" t="n">
-        <v>7373.51</v>
+        <v>7676.01</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>72623</v>
+        <v>89152</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Daniel Barbosa</t>
+          <t>Caleb Abreu</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45088</v>
+        <v>45105</v>
       </c>
       <c r="G10" t="n">
-        <v>3889.42</v>
+        <v>9657.049999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>44669</v>
+        <v>14175</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pedro Miguel Cirino</t>
+          <t>Maria Eduarda Sousa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45095</v>
+        <v>45094</v>
       </c>
       <c r="G11" t="n">
-        <v>8108.86</v>
+        <v>5053.13</v>
       </c>
     </row>
   </sheetData>
